--- a/users/informes_vendor/miquelrius/tendencias de rendimiento/Tendencias de rendimiento de ventas_ES (2).xlsx
+++ b/users/informes_vendor/miquelrius/tendencias de rendimiento/Tendencias de rendimiento de ventas_ES (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg_4_\OneDrive\Escritorio\pruebaVisualizacion\informes_vendor\miquelrius\tendencias de rendimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6518A-12E6-49A2-A264-665FAE47043D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C8848-3E63-4248-9C9B-3A756FE935CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,6 +46,24 @@
     <t>Cambios en Conversión - Periodo anterior</t>
   </si>
   <si>
+    <t>02-abr-2020</t>
+  </si>
+  <si>
+    <t>01-abr-2020</t>
+  </si>
+  <si>
+    <t>31-mar-2020</t>
+  </si>
+  <si>
+    <t>30-mar-2020</t>
+  </si>
+  <si>
+    <t>29-mar-2020</t>
+  </si>
+  <si>
+    <t>28-mar-2020</t>
+  </si>
+  <si>
     <t>27-mar-2020</t>
   </si>
   <si>
@@ -209,24 +227,6 @@
   </si>
   <si>
     <t>02-feb-2020</t>
-  </si>
-  <si>
-    <t>01-feb-2020</t>
-  </si>
-  <si>
-    <t>31-ene-2020</t>
-  </si>
-  <si>
-    <t>30-ene-2020</t>
-  </si>
-  <si>
-    <t>29-ene-2020</t>
-  </si>
-  <si>
-    <t>28-ene-2020</t>
-  </si>
-  <si>
-    <t>27-ene-2020</t>
   </si>
 </sst>
 </file>
@@ -286,9 +286,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -646,28 +646,28 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>2183.9900000000002</v>
+        <v>4690.9799999999968</v>
       </c>
       <c r="C2" s="4">
-        <v>-0.10603958167045235</v>
+        <v>4.2324186201532443E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>420</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-6.8736141906873605E-2</v>
+        <v>874</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-1.4656144306651631E-2</v>
       </c>
       <c r="F2" s="3">
-        <v>5.1999761904761908</v>
+        <v>5.3672540045766555</v>
       </c>
       <c r="G2" s="4">
-        <v>-4.0056788888985784E-2</v>
+        <v>5.7827864028328735E-2</v>
       </c>
       <c r="H2" s="4">
-        <v>-1.4347202295552419E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.16200778637668242</v>
+        <v>7.7528590524283292E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.11618328947514132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -675,28 +675,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>2443.0499999999988</v>
+        <v>4500.5</v>
       </c>
       <c r="C3" s="4">
-        <v>-0.11951691552508981</v>
+        <v>1.8927301953859388E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>451</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-6.237006237006238E-2</v>
+        <v>887</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-2.9540481400437635E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>5.4169623059866936</v>
+        <v>5.0738444193912065</v>
       </c>
       <c r="G3" s="4">
-        <v>-6.0948195936958334E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1.900584795321647E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-4.3548157157979987E-2</v>
+        <v>4.9943127379737717E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.14351222826086962</v>
+      </c>
+      <c r="I3" s="6">
+        <v>-0.13087287630581856</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -704,28 +704,28 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>2774.6699999999996</v>
-      </c>
-      <c r="C4" s="6">
-        <v>7.4533055018763283E-2</v>
+        <v>4416.8999999999978</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.177981357762931</v>
       </c>
       <c r="D4" s="5">
-        <v>481</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.13443396226415105</v>
+        <v>914</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.28913963328631875</v>
       </c>
       <c r="F4" s="3">
-        <v>5.768544698544698</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-5.2802462935643169E-2</v>
+        <v>4.8324945295404786</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-8.622671482065869E-2</v>
       </c>
       <c r="H4" s="6">
-        <v>2.7620478446781505E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-9.9243322567042824E-2</v>
+        <v>-2.8623278066485236E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-3.5689409053384691E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -733,28 +733,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>2582.2099999999996</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6.342120327319245E-2</v>
+        <v>3749.55</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.4507984025412926</v>
       </c>
       <c r="D5" s="5">
-        <v>424</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
+        <v>709</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.6455223880597014</v>
       </c>
       <c r="F5" s="3">
-        <v>6.0901179245283013</v>
+        <v>5.2885049365303249</v>
       </c>
       <c r="G5" s="6">
-        <v>6.342120327319245E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2.8038493525008867E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>9.7269535326848899E-2</v>
+        <v>-7.3605117234038953E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.56850821581058342</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.10364464767343229</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -762,28 +762,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>2428.2100000000005</v>
+        <v>1529.9300000000007</v>
       </c>
       <c r="C6" s="6">
-        <v>0.82273416505277153</v>
+        <v>-0.20620022310426189</v>
       </c>
       <c r="D6" s="5">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="E6" s="6">
-        <v>0.84347826086956534</v>
+        <v>-0.1728395061728395</v>
       </c>
       <c r="F6" s="3">
-        <v>5.7269103773584913</v>
-      </c>
-      <c r="G6" s="4">
-        <v>-1.1252693485524934E-2</v>
+        <v>5.7086940298507489</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-4.0331613006645013E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>0.31310452418096735</v>
+        <v>-6.0532393339005723E-2</v>
       </c>
       <c r="I6" s="4">
-        <v>-9.4530286007227571E-2</v>
+        <v>0.38790959331779634</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -791,28 +791,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>1332.1799999999994</v>
+        <v>1927.35</v>
       </c>
       <c r="C7" s="6">
-        <v>0.43756811878837576</v>
+        <v>-0.11750969555721424</v>
       </c>
       <c r="D7" s="5">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="E7" s="6">
-        <v>0.3855421686746987</v>
+        <v>-0.22857142857142854</v>
       </c>
       <c r="F7" s="3">
-        <v>5.7920869565217368</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3.7549163995088675E-2</v>
+        <v>5.9486111111111111</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.14396891316657423</v>
       </c>
       <c r="H7" s="6">
-        <v>0.57881773399014769</v>
+        <v>-7.8826559175904198E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>4.9216577358746516E-2</v>
+        <v>-0.20843715813783881</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -820,28 +820,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>926.68999999999971</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-0.37245886097379288</v>
+        <v>2183.9899999999998</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.10603958167045258</v>
       </c>
       <c r="D8" s="5">
-        <v>166</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-0.37827715355805247</v>
+        <v>420</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-6.8736141906873605E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>5.5824698795180705</v>
+        <v>5.1999761904761899</v>
       </c>
       <c r="G8" s="6">
-        <v>9.3583380722728204E-3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-0.19619877252029305</v>
+        <v>-4.0056788888986006E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1.4347202295552419E-2</v>
       </c>
       <c r="I8" s="4">
-        <v>-0.21390001623991772</v>
+        <v>0.16200778637668242</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -849,28 +849,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>1476.6999999999994</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-8.6963242340866498E-2</v>
+        <v>2443.0499999999993</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-0.11951691552508981</v>
       </c>
       <c r="D9" s="5">
-        <v>267</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-0.13311688311688308</v>
+        <v>451</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-6.237006237006238E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>5.5307116104868888</v>
+        <v>5.4169623059866945</v>
       </c>
       <c r="G9" s="6">
-        <v>5.3240903966341291E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2.2262699858328183E-2</v>
+        <v>-6.0948195936958334E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.900584795321647E-2</v>
       </c>
       <c r="I9" s="6">
-        <v>4.1148704269086789E-2</v>
+        <v>-4.3548157157979987E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -878,28 +878,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>1617.3499999999997</v>
+        <v>2774.6699999999996</v>
       </c>
       <c r="C10" s="4">
-        <v>-0.18421132273424276</v>
+        <v>7.4533055018763283E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>308</v>
+        <v>481</v>
       </c>
       <c r="E10" s="4">
-        <v>-0.23762376237623761</v>
+        <v>0.13443396226415105</v>
       </c>
       <c r="F10" s="3">
-        <v>5.2511363636363626</v>
+        <v>5.768544698544698</v>
       </c>
       <c r="G10" s="6">
-        <v>7.0060472777162097E-2</v>
+        <v>-5.2802462935643169E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>-6.6150066150066134E-2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-0.12176051508519958</v>
+        <v>2.7620478446781505E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-9.9243322567042824E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -907,28 +907,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>1982.5600000000002</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.11912933526011592</v>
+        <v>2582.2099999999991</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.342120327319245E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>404</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.19526627218934922</v>
+        <v>424</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>4.9073267326732681</v>
+        <v>6.0901179245282995</v>
       </c>
       <c r="G11" s="4">
-        <v>-6.369872446059599E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>8.2225403968091637E-2</v>
+        <v>6.342120327319245E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.8038493525008867E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>-9.4675004700711662E-3</v>
+        <v>9.7269535326848899E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -936,28 +936,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>1771.5199999999998</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.56114068173005727</v>
+        <v>2428.21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.82273416505277086</v>
       </c>
       <c r="D12" s="5">
-        <v>338</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.45689655172413796</v>
+        <v>424</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.84347826086956534</v>
       </c>
       <c r="F12" s="3">
-        <v>5.2411834319526616</v>
+        <v>5.7269103773584904</v>
       </c>
       <c r="G12" s="6">
-        <v>7.1552183909388445E-2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.33287895310796078</v>
-      </c>
-      <c r="I12" s="4">
-        <v>-9.0811657424098483E-2</v>
+        <v>-1.1252693485525267E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.31310452418096735</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-9.4530286007227571E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -965,28 +965,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>1134.76</v>
-      </c>
-      <c r="C13" s="6">
-        <v>7.7910975169557917E-2</v>
+        <v>1332.1799999999998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.43756811878837626</v>
       </c>
       <c r="D13" s="5">
-        <v>232</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.22751322751322747</v>
+        <v>230</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.3855421686746987</v>
       </c>
       <c r="F13" s="3">
-        <v>4.8912068965517239</v>
+        <v>5.7920869565217385</v>
       </c>
       <c r="G13" s="4">
-        <v>-0.12187424867652386</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.7334593572778827</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.25120840578855841</v>
+        <v>3.7549163995088897E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.57881773399014769</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4.9216577358746516E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -994,28 +994,28 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>1052.7399999999996</v>
+        <v>926.68999999999971</v>
       </c>
       <c r="C14" s="6">
-        <v>0.59455324820890243</v>
+        <v>-0.37245886097379299</v>
       </c>
       <c r="D14" s="5">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E14" s="6">
-        <v>0.6875</v>
+        <v>-0.37827715355805247</v>
       </c>
       <c r="F14" s="3">
-        <v>5.5700529100529073</v>
+        <v>5.5824698795180705</v>
       </c>
       <c r="G14" s="4">
-        <v>-5.5079556616946752E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-4.4695259593679475E-2</v>
+        <v>9.3583380722725984E-3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-0.19619877252029305</v>
       </c>
       <c r="I14" s="6">
-        <v>8.3387312120771551E-2</v>
+        <v>-0.21390001623991772</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1023,28 +1023,28 @@
         <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>660.20999999999992</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-0.37165345337914368</v>
+        <v>1476.7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-8.6963242340866054E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>112</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-0.38797814207650272</v>
+        <v>267</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-0.13311688311688308</v>
       </c>
       <c r="F15" s="3">
-        <v>5.8947321428571424</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2.6673375282291856E-2</v>
+        <v>5.5307116104868914</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.3240903966341735E-2</v>
       </c>
       <c r="H15" s="4">
-        <v>-9.7024052181002851E-2</v>
+        <v>2.2262699858328183E-2</v>
       </c>
       <c r="I15" s="4">
-        <v>-0.16649875252465252</v>
+        <v>4.1148704269086789E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1052,28 +1052,28 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>1050.7099999999998</v>
-      </c>
-      <c r="C16" s="4">
-        <v>-0.27712724971104641</v>
+        <v>1617.3499999999997</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-0.1842113227342429</v>
       </c>
       <c r="D16" s="5">
-        <v>183</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-0.15668202764976957</v>
+        <v>308</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-0.23762376237623761</v>
       </c>
       <c r="F16" s="3">
-        <v>5.7415846994535507</v>
+        <v>5.2511363636363626</v>
       </c>
       <c r="G16" s="4">
-        <v>-0.1428230228814048</v>
+        <v>7.0060472777161875E-2</v>
       </c>
       <c r="H16" s="6">
-        <v>0.15762151958470971</v>
-      </c>
-      <c r="I16" s="4">
-        <v>-2.8818714917369648E-2</v>
+        <v>-6.6150066150066134E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>-0.12176051508519958</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1081,28 +1081,28 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>1453.5199999999998</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.20297615599162433</v>
+        <v>1982.5600000000006</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.11912933526011615</v>
       </c>
       <c r="D17" s="5">
-        <v>217</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.17297297297297298</v>
+        <v>404</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.19526627218934922</v>
       </c>
       <c r="F17" s="3">
-        <v>6.6982488479262665</v>
+        <v>4.907326732673269</v>
       </c>
       <c r="G17" s="6">
-        <v>2.5578750499771985E-2</v>
+        <v>-6.3698724460595768E-2</v>
       </c>
       <c r="H17" s="4">
-        <v>-0.15979381443298968</v>
-      </c>
-      <c r="I17" s="4">
-        <v>-0.10999511374124549</v>
+        <v>8.2225403968091637E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-9.4675004700711662E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1110,28 +1110,28 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>1208.27</v>
+        <v>1771.5199999999995</v>
       </c>
       <c r="C18" s="4">
-        <v>-0.22165605916153452</v>
+        <v>0.56114068173005704</v>
       </c>
       <c r="D18" s="5">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="E18" s="4">
-        <v>-0.12735849056603776</v>
+        <v>0.45689655172413796</v>
       </c>
       <c r="F18" s="3">
-        <v>6.5311891891891891</v>
+        <v>5.2411834319526616</v>
       </c>
       <c r="G18" s="4">
-        <v>-0.10805991644456936</v>
-      </c>
-      <c r="H18" s="6">
-        <v>6.3686208350906881E-2</v>
+        <v>7.1552183909388445E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.33287895310796078</v>
       </c>
       <c r="I18" s="6">
-        <v>0.1738600864875286</v>
+        <v>-9.0811657424098483E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1139,28 +1139,28 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>1552.3599999999997</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.16894578313253006</v>
+        <v>1134.76</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7.7910975169557695E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>212</v>
-      </c>
-      <c r="E19" s="6">
-        <v>6.0000000000000053E-2</v>
+        <v>232</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.22751322751322747</v>
       </c>
       <c r="F19" s="3">
-        <v>7.322452830188678</v>
+        <v>4.8912068965517239</v>
       </c>
       <c r="G19" s="6">
-        <v>0.10277904069106626</v>
+        <v>-0.12187424867652406</v>
       </c>
       <c r="H19" s="4">
-        <v>-0.1824137931034483</v>
-      </c>
-      <c r="I19" s="6">
-        <v>4.9210343786791899E-2</v>
+        <v>0.7334593572778827</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.25120840578855841</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1168,28 +1168,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>1327.9999999999998</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.58291217698102393</v>
+        <v>1052.7399999999998</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.59455324820890332</v>
       </c>
       <c r="D20" s="5">
-        <v>200</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.65289256198347123</v>
+        <v>189</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.6875</v>
       </c>
       <c r="F20" s="3">
-        <v>6.6399999999999988</v>
-      </c>
-      <c r="G20" s="4">
-        <v>-4.2338132926480476E-2</v>
+        <v>5.570052910052909</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-5.507955661694619E-2</v>
       </c>
       <c r="H20" s="6">
-        <v>0.29464285714285721</v>
+        <v>-4.4695259593679475E-2</v>
       </c>
       <c r="I20" s="4">
-        <v>-1.2693039983080467E-4</v>
+        <v>8.3387312120771551E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1197,28 +1197,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>838.9599999999997</v>
+        <v>660.20999999999981</v>
       </c>
       <c r="C21" s="6">
-        <v>0.10568419942802108</v>
+        <v>-0.37165345337914368</v>
       </c>
       <c r="D21" s="5">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E21" s="6">
-        <v>0.13084112149532712</v>
+        <v>-0.38797814207650272</v>
       </c>
       <c r="F21" s="3">
-        <v>6.9335537190082617</v>
+        <v>5.8947321428571415</v>
       </c>
       <c r="G21" s="4">
-        <v>-2.2246203811584708E-2</v>
+        <v>2.6673375282292078E-2</v>
       </c>
       <c r="H21" s="6">
-        <v>0.30841121495327095</v>
+        <v>-9.7024052181002851E-2</v>
       </c>
       <c r="I21" s="6">
-        <v>0.28431516936671586</v>
+        <v>-0.16649875252465252</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1226,28 +1226,28 @@
         <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>758.77</v>
-      </c>
-      <c r="C22" s="4">
-        <v>-0.28814147668636825</v>
+        <v>1050.7099999999998</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-0.27712724971104641</v>
       </c>
       <c r="D22" s="5">
-        <v>107</v>
-      </c>
-      <c r="E22" s="4">
-        <v>-0.34756097560975602</v>
+        <v>183</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-0.15668202764976957</v>
       </c>
       <c r="F22" s="3">
-        <v>7.0913084112149534</v>
+        <v>5.7415846994535507</v>
       </c>
       <c r="G22" s="6">
-        <v>9.107287685453859E-2</v>
+        <v>-0.1428230228814048</v>
       </c>
       <c r="H22" s="4">
-        <v>-0.22952295229522957</v>
+        <v>0.15762151958470971</v>
       </c>
       <c r="I22" s="6">
-        <v>5.794981544019473E-2</v>
+        <v>-2.8818714917369648E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1255,28 +1255,28 @@
         <v>29</v>
       </c>
       <c r="B23" s="3">
-        <v>1065.9000000000003</v>
+        <v>1453.5199999999998</v>
       </c>
       <c r="C23" s="4">
-        <v>-0.42185966035136424</v>
+        <v>0.20297615599162414</v>
       </c>
       <c r="D23" s="5">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="E23" s="4">
-        <v>-0.41218637992831542</v>
+        <v>0.17297297297297298</v>
       </c>
       <c r="F23" s="3">
-        <v>6.4993902439024414</v>
+        <v>6.6982488479262665</v>
       </c>
       <c r="G23" s="4">
-        <v>-1.6456373402625624E-2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>-0.34143449911084767</v>
-      </c>
-      <c r="I23" s="4">
-        <v>-0.25639600997136747</v>
+        <v>2.5578750499771763E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-0.15979381443298968</v>
+      </c>
+      <c r="I23" s="6">
+        <v>-0.10999511374124549</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1284,28 +1284,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="3">
-        <v>1843.6699999999992</v>
-      </c>
-      <c r="C24" s="4">
-        <v>-5.734167765949872E-2</v>
+        <v>1208.27</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-0.22165605916153475</v>
       </c>
       <c r="D24" s="5">
-        <v>279</v>
-      </c>
-      <c r="E24" s="4">
-        <v>-7.1174377224199059E-3</v>
+        <v>185</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-0.12735849056603776</v>
       </c>
       <c r="F24" s="3">
-        <v>6.6081362007168432</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-5.0584270330892966E-2</v>
+        <v>6.5311891891891891</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-0.10805991644456958</v>
       </c>
       <c r="H24" s="4">
-        <v>-8.0403379667484356E-2</v>
+        <v>6.3686208350906881E-2</v>
       </c>
       <c r="I24" s="4">
-        <v>-2.4921419931448918E-2</v>
+        <v>0.1738600864875286</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1313,28 +1313,28 @@
         <v>31</v>
       </c>
       <c r="B25" s="3">
-        <v>1955.8200000000004</v>
-      </c>
-      <c r="C25" s="6">
-        <v>7.5441818521736703E-2</v>
+        <v>1552.3600000000004</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.16894578313253006</v>
       </c>
       <c r="D25" s="5">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="E25" s="4">
-        <v>-3.4364261168384869E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="F25" s="3">
-        <v>6.9602135231316744</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.11371376935880928</v>
+        <v>7.3224528301886807</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.10277904069106603</v>
       </c>
       <c r="H25" s="6">
-        <v>2.0584144645340752E-2</v>
-      </c>
-      <c r="I25" s="6">
-        <v>6.2136822022349492E-2</v>
+        <v>-0.1824137931034483</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4.9210343786791899E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1342,28 +1342,28 @@
         <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>1818.6199999999997</v>
-      </c>
-      <c r="C26" s="6">
-        <v>8.1481921979067243E-2</v>
+        <v>1328</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.58291217698102438</v>
       </c>
       <c r="D26" s="5">
-        <v>291</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3.5587188612099752E-2</v>
+        <v>200</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.65289256198347123</v>
       </c>
       <c r="F26" s="3">
-        <v>6.2495532646048098</v>
+        <v>6.64</v>
       </c>
       <c r="G26" s="6">
-        <v>4.4317594763291668E-2</v>
-      </c>
-      <c r="H26" s="6">
-        <v>5.3634232121922532E-2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>-9.7817522224043718E-2</v>
+        <v>-4.2338132926480136E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.29464285714285721</v>
+      </c>
+      <c r="I26" s="6">
+        <v>-1.2693039983080467E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1371,28 +1371,28 @@
         <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>1681.5999999999997</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.58518881619878971</v>
+        <v>838.9599999999997</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.10568419942802108</v>
       </c>
       <c r="D27" s="5">
-        <v>281</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.52717391304347827</v>
+        <v>121</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.13084112149532712</v>
       </c>
       <c r="F27" s="3">
-        <v>5.984341637010675</v>
+        <v>6.9335537190082617</v>
       </c>
       <c r="G27" s="6">
-        <v>3.7988406336574077E-2</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.19803370786516861</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.1031476255839574</v>
+        <v>-2.2246203811584708E-2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.30841121495327095</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.28431516936671586</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1400,28 +1400,28 @@
         <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>1060.8199999999997</v>
+        <v>758.7700000000001</v>
       </c>
       <c r="C28" s="6">
-        <v>0.24562021511436741</v>
+        <v>-0.28814147668636825</v>
       </c>
       <c r="D28" s="5">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="E28" s="6">
-        <v>0.19480519480519476</v>
+        <v>-0.34756097560975602</v>
       </c>
       <c r="F28" s="3">
-        <v>5.7653260869565202</v>
-      </c>
-      <c r="G28" s="6">
-        <v>4.2529962650068365E-2</v>
+        <v>7.0913084112149543</v>
+      </c>
+      <c r="G28" s="4">
+        <v>9.1072876854538354E-2</v>
       </c>
       <c r="H28" s="6">
-        <v>0.11905697445972496</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.1326643347885208</v>
+        <v>-0.22952295229522957</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5.794981544019473E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1429,28 +1429,28 @@
         <v>35</v>
       </c>
       <c r="B29" s="3">
-        <v>851.63999999999987</v>
-      </c>
-      <c r="C29" s="4">
-        <v>-0.25248180884586013</v>
+        <v>1065.9000000000001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-0.42185966035136441</v>
       </c>
       <c r="D29" s="5">
-        <v>154</v>
-      </c>
-      <c r="E29" s="4">
-        <v>-0.29032258064516125</v>
+        <v>164</v>
+      </c>
+      <c r="E29" s="6">
+        <v>-0.41218637992831542</v>
       </c>
       <c r="F29" s="3">
-        <v>5.5301298701298691</v>
+        <v>6.4993902439024396</v>
       </c>
       <c r="G29" s="6">
-        <v>5.3321087535378897E-2</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-0.25366568914956011</v>
-      </c>
-      <c r="I29" s="4">
-        <v>-8.139085972151916E-2</v>
+        <v>-1.6456373402625957E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>-0.34143449911084767</v>
+      </c>
+      <c r="I29" s="6">
+        <v>-0.25639600997136747</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1458,28 +1458,28 @@
         <v>36</v>
       </c>
       <c r="B30" s="3">
-        <v>1139.29</v>
-      </c>
-      <c r="C30" s="4">
-        <v>-0.26301524051025982</v>
+        <v>1843.6699999999996</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-5.7341677659498484E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>217</v>
-      </c>
-      <c r="E30" s="4">
-        <v>-0.21942446043165464</v>
+        <v>279</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-7.1174377224199059E-3</v>
       </c>
       <c r="F30" s="3">
-        <v>5.250184331797235</v>
-      </c>
-      <c r="G30" s="4">
-        <v>-5.5844409501623178E-2</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-9.3567251461988299E-2</v>
+        <v>6.6081362007168449</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-5.0584270330892744E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-8.0403379667484356E-2</v>
       </c>
       <c r="I30" s="6">
-        <v>6.5986116782360105E-2</v>
+        <v>-2.4921419931448918E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1487,28 +1487,28 @@
         <v>37</v>
       </c>
       <c r="B31" s="3">
-        <v>1545.8800000000003</v>
+        <v>1955.82</v>
       </c>
       <c r="C31" s="4">
-        <v>-6.216450773038118E-3</v>
+        <v>7.5441818521736259E-2</v>
       </c>
       <c r="D31" s="5">
-        <v>278</v>
-      </c>
-      <c r="E31" s="4">
-        <v>-1.4184397163120588E-2</v>
+        <v>281</v>
+      </c>
+      <c r="E31" s="6">
+        <v>-3.4364261168384869E-2</v>
       </c>
       <c r="F31" s="3">
-        <v>5.5607194244604328</v>
-      </c>
-      <c r="G31" s="6">
-        <v>8.0825931007311169E-3</v>
+        <v>6.9602135231316726</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.11371376935880884</v>
       </c>
       <c r="H31" s="4">
-        <v>-0.18235166268202563</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3.1514810967891993E-2</v>
+        <v>2.0584144645340752E-2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6.2136822022349492E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1516,28 +1516,28 @@
         <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>1555.5499999999995</v>
+        <v>1818.6200000000001</v>
       </c>
       <c r="C32" s="4">
-        <v>-7.7591318785579122E-2</v>
+        <v>8.1481921979067895E-2</v>
       </c>
       <c r="D32" s="5">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.16814159292035402</v>
+        <v>3.5587188612099752E-2</v>
       </c>
       <c r="F32" s="3">
-        <v>5.5161347517730475</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.10885298911946339</v>
+        <v>6.2495532646048115</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4.4317594763292334E-2</v>
       </c>
       <c r="H32" s="4">
-        <v>-8.2918078532987827E-2</v>
+        <v>5.3634232121922532E-2</v>
       </c>
       <c r="I32" s="6">
-        <v>2.8210237342626066E-2</v>
+        <v>-9.7817522224043718E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1545,28 +1545,28 @@
         <v>39</v>
       </c>
       <c r="B33" s="3">
-        <v>1686.4000000000003</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.48584116019665635</v>
+        <v>1681.5999999999997</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.58518881619878971</v>
       </c>
       <c r="D33" s="5">
-        <v>339</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.51339285714285721</v>
+        <v>281</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.52717391304347827</v>
       </c>
       <c r="F33" s="3">
-        <v>4.9746312684365792</v>
+        <v>5.984341637010675</v>
       </c>
       <c r="G33" s="4">
-        <v>-1.8205251079495444E-2</v>
-      </c>
-      <c r="H33" s="6">
-        <v>9.1126576772509793E-2</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0.1475303296522914</v>
+        <v>3.7988406336574077E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.19803370786516861</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.1031476255839574</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1574,28 +1574,28 @@
         <v>40</v>
       </c>
       <c r="B34" s="3">
-        <v>1134.9799999999998</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.11574456372144205</v>
+        <v>1060.8199999999997</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.2456202151143676</v>
       </c>
       <c r="D34" s="5">
-        <v>224</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0.21081081081081088</v>
+        <v>184</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.19480519480519476</v>
       </c>
       <c r="F34" s="3">
-        <v>5.0668749999999987</v>
+        <v>5.7653260869565202</v>
       </c>
       <c r="G34" s="4">
-        <v>-7.8514534426487703E-2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0.48947197926789765</v>
+        <v>4.2529962650068587E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.11905697445972496</v>
       </c>
       <c r="I34" s="4">
-        <v>-0.14551781406935826</v>
+        <v>0.1326643347885208</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1603,28 +1603,28 @@
         <v>41</v>
       </c>
       <c r="B35" s="3">
-        <v>1017.2400000000002</v>
+        <v>851.63999999999987</v>
       </c>
       <c r="C35" s="6">
-        <v>0.92823429058857032</v>
+        <v>-0.2524818088458598</v>
       </c>
       <c r="D35" s="5">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6">
-        <v>0.85000000000000009</v>
+        <v>-0.29032258064516125</v>
       </c>
       <c r="F35" s="3">
-        <v>5.4985945945945955</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4.2288805723551537E-2</v>
+        <v>5.5301298701298691</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.3321087535379341E-2</v>
       </c>
       <c r="H35" s="6">
-        <v>0.62559241706161139</v>
-      </c>
-      <c r="I35" s="4">
-        <v>-0.1478889968685887</v>
+        <v>-0.25366568914956011</v>
+      </c>
+      <c r="I35" s="6">
+        <v>-8.139085972151916E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1632,28 +1632,28 @@
         <v>42</v>
       </c>
       <c r="B36" s="3">
-        <v>527.55000000000007</v>
-      </c>
-      <c r="C36" s="4">
-        <v>-0.51416836269535038</v>
+        <v>1139.2899999999995</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-0.26301524051025982</v>
       </c>
       <c r="D36" s="5">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4">
-        <v>-0.51690821256038655</v>
+        <v>217</v>
+      </c>
+      <c r="E36" s="6">
+        <v>-0.21942446043165464</v>
       </c>
       <c r="F36" s="3">
-        <v>5.275500000000001</v>
+        <v>5.2501843317972323</v>
       </c>
       <c r="G36" s="6">
-        <v>5.6714892206246592E-3</v>
-      </c>
-      <c r="H36" s="4">
-        <v>-0.2650928792569659</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0.12697351205187113</v>
+        <v>-5.5844409501623178E-2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>-9.3567251461988299E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>6.5986116782360105E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1661,28 +1661,28 @@
         <v>43</v>
       </c>
       <c r="B37" s="3">
-        <v>1085.8700000000003</v>
-      </c>
-      <c r="C37" s="4">
-        <v>-0.41220444309717641</v>
+        <v>1545.8799999999997</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-6.2164507730386731E-3</v>
       </c>
       <c r="D37" s="5">
-        <v>207</v>
-      </c>
-      <c r="E37" s="4">
-        <v>-0.36111111111111116</v>
+        <v>278</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-1.4184397163120588E-2</v>
       </c>
       <c r="F37" s="3">
-        <v>5.2457487922705335</v>
+        <v>5.5607194244604301</v>
       </c>
       <c r="G37" s="4">
-        <v>-7.997217180427596E-2</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-0.35641344956413445</v>
+        <v>8.0825931007304508E-3</v>
+      </c>
+      <c r="H37" s="6">
+        <v>-0.18235166268202563</v>
       </c>
       <c r="I37" s="4">
-        <v>-0.11753244301571719</v>
+        <v>3.1514810967891993E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1690,28 +1690,28 @@
         <v>44</v>
       </c>
       <c r="B38" s="3">
-        <v>1847.3600000000001</v>
-      </c>
-      <c r="C38" s="4">
-        <v>-4.0581999989197648E-4</v>
+        <v>1555.55</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-7.7591318785578789E-2</v>
       </c>
       <c r="D38" s="5">
-        <v>324</v>
-      </c>
-      <c r="E38" s="4">
-        <v>-2.7027027027026973E-2</v>
+        <v>282</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-0.16814159292035402</v>
       </c>
       <c r="F38" s="3">
-        <v>5.7017283950617283</v>
-      </c>
-      <c r="G38" s="6">
-        <v>2.7360685000110907E-2</v>
-      </c>
-      <c r="H38" s="4">
-        <v>-9.0600226500566206E-2</v>
+        <v>5.5161347517730492</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.10885298911946384</v>
+      </c>
+      <c r="H38" s="6">
+        <v>-8.2918078532987827E-2</v>
       </c>
       <c r="I38" s="4">
-        <v>-0.11598661880692497</v>
+        <v>2.8210237342626066E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1719,28 +1719,28 @@
         <v>45</v>
       </c>
       <c r="B39" s="3">
-        <v>1848.1100000000004</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1.1364251312295792E-4</v>
+        <v>1686.4000000000003</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.48584116019665591</v>
       </c>
       <c r="D39" s="5">
-        <v>333</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0.18928571428571428</v>
+        <v>339</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.51339285714285721</v>
       </c>
       <c r="F39" s="3">
-        <v>5.5498798798798807</v>
-      </c>
-      <c r="G39" s="4">
-        <v>-0.15906360389286955</v>
+        <v>4.9746312684365792</v>
+      </c>
+      <c r="G39" s="6">
+        <v>-1.8205251079495666E-2</v>
       </c>
       <c r="H39" s="4">
-        <v>-5.8635394456289965E-2</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0.32600242339766683</v>
+        <v>9.1126576772509793E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.1475303296522914</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1748,28 +1748,28 @@
         <v>46</v>
       </c>
       <c r="B40" s="3">
-        <v>1847.9</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0.16444225994681605</v>
+        <v>1134.98</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.11574456372144226</v>
       </c>
       <c r="D40" s="5">
-        <v>280</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1.8181818181818077E-2</v>
+        <v>224</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.21081081081081088</v>
       </c>
       <c r="F40" s="3">
-        <v>6.5996428571428574</v>
+        <v>5.0668750000000005</v>
       </c>
       <c r="G40" s="6">
-        <v>0.14364864816205158</v>
+        <v>-7.8514534426487259E-2</v>
       </c>
       <c r="H40" s="4">
-        <v>-0.16055127975657779</v>
-      </c>
-      <c r="I40" s="4">
-        <v>-9.5936430802796568E-3</v>
+        <v>0.48947197926789765</v>
+      </c>
+      <c r="I40" s="6">
+        <v>-0.14551781406935826</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1777,28 +1777,28 @@
         <v>47</v>
       </c>
       <c r="B41" s="3">
-        <v>1586.9399999999994</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0.2113860857086145</v>
+        <v>1017.24</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.92823429058856921</v>
       </c>
       <c r="D41" s="5">
-        <v>275</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0.38190954773869357</v>
+        <v>185</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.85000000000000009</v>
       </c>
       <c r="F41" s="3">
-        <v>5.7706909090909067</v>
+        <v>5.4985945945945947</v>
       </c>
       <c r="G41" s="4">
-        <v>-0.12339697797812998</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.57468996617812862</v>
-      </c>
-      <c r="I41" s="4">
-        <v>-1.5965312009700749E-2</v>
+        <v>4.2288805723550871E-2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.62559241706161139</v>
+      </c>
+      <c r="I41" s="6">
+        <v>-0.1478889968685887</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1806,28 +1806,28 @@
         <v>48</v>
       </c>
       <c r="B42" s="3">
-        <v>1310.0200000000002</v>
+        <v>527.55000000000018</v>
       </c>
       <c r="C42" s="6">
-        <v>1.187340334941811</v>
+        <v>-0.51416836269535016</v>
       </c>
       <c r="D42" s="5">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6">
-        <v>0.70085470085470081</v>
+        <v>-0.51690821256038655</v>
       </c>
       <c r="F42" s="3">
-        <v>6.5830150753768857</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.28602421702608982</v>
+        <v>5.2755000000000019</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5.6714892206253253E-3</v>
       </c>
       <c r="H42" s="6">
-        <v>0.58889386475593364</v>
+        <v>-0.2650928792569659</v>
       </c>
       <c r="I42" s="4">
-        <v>-0.19701240135287493</v>
+        <v>0.12697351205187113</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1835,28 +1835,28 @@
         <v>49</v>
       </c>
       <c r="B43" s="3">
-        <v>598.9100000000002</v>
-      </c>
-      <c r="C43" s="4">
-        <v>-0.51000188174462258</v>
+        <v>1085.8700000000001</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-0.41220444309717652</v>
       </c>
       <c r="D43" s="5">
-        <v>117</v>
-      </c>
-      <c r="E43" s="4">
-        <v>-0.45070422535211263</v>
+        <v>207</v>
+      </c>
+      <c r="E43" s="6">
+        <v>-0.36111111111111116</v>
       </c>
       <c r="F43" s="3">
-        <v>5.1188888888888906</v>
-      </c>
-      <c r="G43" s="4">
-        <v>-0.10795214368892825</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-0.15384615384615385</v>
+        <v>5.2457487922705317</v>
+      </c>
+      <c r="G43" s="6">
+        <v>-7.9972171804276182E-2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>-0.35641344956413445</v>
       </c>
       <c r="I43" s="6">
-        <v>0.19556025369978869</v>
+        <v>-0.11753244301571719</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1864,28 +1864,28 @@
         <v>50</v>
       </c>
       <c r="B44" s="3">
-        <v>1222.2700000000002</v>
-      </c>
-      <c r="C44" s="4">
-        <v>-0.38699226135845</v>
+        <v>1847.36</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-4.0581999989242057E-4</v>
       </c>
       <c r="D44" s="5">
-        <v>213</v>
-      </c>
-      <c r="E44" s="4">
-        <v>-0.28523489932885904</v>
+        <v>324</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-2.7027027027026973E-2</v>
       </c>
       <c r="F44" s="3">
-        <v>5.7383568075117379</v>
+        <v>5.7017283950617283</v>
       </c>
       <c r="G44" s="4">
-        <v>-0.14236476002262022</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-0.35743851960068168</v>
+        <v>2.7360685000110463E-2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>-9.0600226500566206E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>1.7789605176520062E-2</v>
+        <v>-0.11598661880692497</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1893,28 +1893,28 @@
         <v>51</v>
       </c>
       <c r="B45" s="3">
-        <v>1993.8900000000003</v>
-      </c>
-      <c r="C45" s="6">
-        <v>8.0769480941850436E-2</v>
+        <v>1848.1100000000006</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.1364251312340201E-4</v>
       </c>
       <c r="D45" s="5">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="E45" s="4">
-        <v>-0.15819209039548021</v>
+        <v>0.18928571428571428</v>
       </c>
       <c r="F45" s="3">
-        <v>6.690906040268457</v>
+        <v>5.5498798798798816</v>
       </c>
       <c r="G45" s="6">
-        <v>0.28386710152152705</v>
-      </c>
-      <c r="H45" s="4">
-        <v>-0.12617021276595741</v>
+        <v>-0.15906360389286922</v>
+      </c>
+      <c r="H45" s="6">
+        <v>-5.8635394456289965E-2</v>
       </c>
       <c r="I45" s="4">
-        <v>-9.8880398443434547E-2</v>
+        <v>0.32600242339766683</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1922,28 +1922,28 @@
         <v>52</v>
       </c>
       <c r="B46" s="3">
-        <v>1844.8799999999997</v>
+        <v>1847.8999999999999</v>
       </c>
       <c r="C46" s="4">
-        <v>-6.391658421493307E-2</v>
+        <v>0.16444225994681561</v>
       </c>
       <c r="D46" s="5">
-        <v>354</v>
-      </c>
-      <c r="E46" s="6">
-        <v>8.5470085470085166E-3</v>
+        <v>280</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.8181818181818077E-2</v>
       </c>
       <c r="F46" s="3">
-        <v>5.2115254237288129</v>
+        <v>6.5996428571428565</v>
       </c>
       <c r="G46" s="4">
-        <v>-7.1849494518196222E-2</v>
-      </c>
-      <c r="H46" s="4">
-        <v>-9.4412331406551045E-2</v>
+        <v>0.14364864816205092</v>
+      </c>
+      <c r="H46" s="6">
+        <v>-0.16055127975657779</v>
       </c>
       <c r="I46" s="6">
-        <v>7.2154873824839205E-2</v>
+        <v>-9.5936430802796568E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1951,28 +1951,28 @@
         <v>53</v>
       </c>
       <c r="B47" s="3">
-        <v>1970.8500000000001</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1.4573702472021166E-2</v>
+        <v>1586.9399999999998</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.21138608570861517</v>
       </c>
       <c r="D47" s="5">
-        <v>351</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1.4450867052023142E-2</v>
+        <v>275</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.38190954773869357</v>
       </c>
       <c r="F47" s="3">
-        <v>5.6149572649572654</v>
+        <v>5.7706909090909084</v>
       </c>
       <c r="G47" s="6">
-        <v>1.2108562769030939E-4</v>
-      </c>
-      <c r="H47" s="6">
-        <v>6.0089164566776709E-3</v>
-      </c>
-      <c r="I47" s="4">
-        <v>-5.8001985169615189E-2</v>
+        <v>-0.12339697797812932</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.57468996617812862</v>
+      </c>
+      <c r="I47" s="6">
+        <v>-1.5965312009700749E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1980,28 +1980,28 @@
         <v>54</v>
       </c>
       <c r="B48" s="3">
-        <v>1942.54</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0.60956855336531723</v>
+        <v>1310.02</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.1873403349418115</v>
       </c>
       <c r="D48" s="5">
-        <v>346</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0.7386934673366834</v>
+        <v>199</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.70085470085470081</v>
       </c>
       <c r="F48" s="3">
-        <v>5.6142774566473985</v>
+        <v>6.5830150753768839</v>
       </c>
       <c r="G48" s="4">
-        <v>-7.4265485203184545E-2</v>
-      </c>
-      <c r="H48" s="6">
-        <v>8.5419734904270891E-2</v>
+        <v>0.28602421702609004</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.58889386475593364</v>
       </c>
       <c r="I48" s="6">
-        <v>0.32711442786069655</v>
+        <v>-0.19701240135287493</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2009,28 +2009,28 @@
         <v>55</v>
       </c>
       <c r="B49" s="3">
-        <v>1206.8699999999999</v>
+        <v>598.91</v>
       </c>
       <c r="C49" s="6">
-        <v>0.18798110050201733</v>
+        <v>-0.51000188174462258</v>
       </c>
       <c r="D49" s="5">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="E49" s="6">
-        <v>0.10555555555555562</v>
+        <v>-0.45070422535211263</v>
       </c>
       <c r="F49" s="3">
-        <v>6.0646733668341701</v>
+        <v>5.1188888888888888</v>
       </c>
       <c r="G49" s="6">
-        <v>7.4555769298307206E-2</v>
+        <v>-0.10795214368892836</v>
       </c>
       <c r="H49" s="6">
-        <v>0.40455082742316795</v>
+        <v>-0.15384615384615385</v>
       </c>
       <c r="I49" s="4">
-        <v>-8.7470199106582935E-3</v>
+        <v>0.19556025369978869</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2038,28 +2038,28 @@
         <v>56</v>
       </c>
       <c r="B50" s="3">
-        <v>1015.9000000000004</v>
-      </c>
-      <c r="C50" s="4">
-        <v>-0.27921216378252167</v>
+        <v>1222.2699999999998</v>
+      </c>
+      <c r="C50" s="6">
+        <v>-0.38699226135845011</v>
       </c>
       <c r="D50" s="5">
-        <v>180</v>
-      </c>
-      <c r="E50" s="4">
-        <v>-0.1964285714285714</v>
+        <v>213</v>
+      </c>
+      <c r="E50" s="6">
+        <v>-0.28523489932885904</v>
       </c>
       <c r="F50" s="3">
-        <v>5.643888888888891</v>
-      </c>
-      <c r="G50" s="4">
-        <v>-0.10301958159602698</v>
-      </c>
-      <c r="H50" s="4">
-        <v>-0.21684795186299469</v>
-      </c>
-      <c r="I50" s="6">
-        <v>4.8578990646521714E-3</v>
+        <v>5.7383568075117362</v>
+      </c>
+      <c r="G50" s="6">
+        <v>-0.14236476002262033</v>
+      </c>
+      <c r="H50" s="6">
+        <v>-0.35743851960068168</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.7789605176520062E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2067,28 +2067,28 @@
         <v>57</v>
       </c>
       <c r="B51" s="3">
-        <v>1409.43</v>
+        <v>1993.8899999999999</v>
       </c>
       <c r="C51" s="4">
-        <v>-0.31473954433629259</v>
+        <v>8.0769480941849991E-2</v>
       </c>
       <c r="D51" s="5">
-        <v>224</v>
-      </c>
-      <c r="E51" s="4">
-        <v>-0.34693877551020413</v>
+        <v>298</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-0.15819209039548021</v>
       </c>
       <c r="F51" s="3">
-        <v>6.2920982142857147</v>
-      </c>
-      <c r="G51" s="6">
-        <v>4.9305072735052136E-2</v>
-      </c>
-      <c r="H51" s="4">
-        <v>-0.31920592405861037</v>
-      </c>
-      <c r="I51" s="4">
-        <v>-6.350654124181454E-3</v>
+        <v>6.6909060402684561</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.28386710152152639</v>
+      </c>
+      <c r="H51" s="6">
+        <v>-0.12617021276595741</v>
+      </c>
+      <c r="I51" s="6">
+        <v>-9.8880398443434547E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2096,28 +2096,28 @@
         <v>58</v>
       </c>
       <c r="B52" s="3">
-        <v>2056.7799999999997</v>
-      </c>
-      <c r="C52" s="4">
-        <v>-2.3839469200430785E-2</v>
+        <v>1844.8799999999997</v>
+      </c>
+      <c r="C52" s="6">
+        <v>-6.3916584214932404E-2</v>
       </c>
       <c r="D52" s="5">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E52" s="4">
-        <v>-3.6516853932584303E-2</v>
+        <v>8.5470085470085166E-3</v>
       </c>
       <c r="F52" s="3">
-        <v>5.9964431486880461</v>
+        <v>5.2115254237288129</v>
       </c>
       <c r="G52" s="6">
-        <v>1.3157868701593856E-2</v>
-      </c>
-      <c r="H52" s="4">
-        <v>-3.6727879799666074E-2</v>
-      </c>
-      <c r="I52" s="6">
-        <v>4.7369747337348E-2</v>
+        <v>-7.1849494518195667E-2</v>
+      </c>
+      <c r="H52" s="6">
+        <v>-9.4412331406551045E-2</v>
+      </c>
+      <c r="I52" s="4">
+        <v>7.2154873824839205E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2125,28 +2125,28 @@
         <v>59</v>
       </c>
       <c r="B53" s="3">
-        <v>2107.0099999999998</v>
-      </c>
-      <c r="C53" s="6">
-        <v>6.1829745202386599E-2</v>
+        <v>1970.8499999999992</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1.4573702472021166E-2</v>
       </c>
       <c r="D53" s="5">
-        <v>356</v>
-      </c>
-      <c r="E53" s="6">
-        <v>9.5384615384615401E-2</v>
+        <v>351</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1.4450867052023142E-2</v>
       </c>
       <c r="F53" s="3">
-        <v>5.9185674157303367</v>
+        <v>5.6149572649572628</v>
       </c>
       <c r="G53" s="4">
-        <v>-3.0632957329281951E-2</v>
+        <v>1.2108562769030939E-4</v>
       </c>
       <c r="H53" s="4">
-        <v>-3.0173682661171597E-2</v>
+        <v>6.0089164566776709E-3</v>
       </c>
       <c r="I53" s="6">
-        <v>7.5804641096639536E-2</v>
+        <v>-5.8001985169615189E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2154,28 +2154,28 @@
         <v>60</v>
       </c>
       <c r="B54" s="3">
-        <v>1984.32</v>
+        <v>1942.5399999999993</v>
       </c>
       <c r="C54" s="4">
-        <v>-2.2930833279990348E-2</v>
+        <v>0.60956855336531612</v>
       </c>
       <c r="D54" s="5">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="E54" s="4">
-        <v>-6.8767908309455561E-2</v>
+        <v>0.7386934673366834</v>
       </c>
       <c r="F54" s="3">
-        <v>6.1055999999999999</v>
+        <v>5.6142774566473967</v>
       </c>
       <c r="G54" s="6">
-        <v>4.9221966723948851E-2</v>
-      </c>
-      <c r="H54" s="6">
-        <v>9.7754079819033723E-2</v>
+        <v>-7.4265485203185211E-2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8.5419734904270891E-2</v>
       </c>
       <c r="I54" s="4">
-        <v>-0.1617176040196352</v>
+        <v>0.32711442786069655</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2183,28 +2183,28 @@
         <v>61</v>
       </c>
       <c r="B55" s="3">
-        <v>2030.8899999999996</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0.44357252016917231</v>
+        <v>1206.8700000000001</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.18798110050201777</v>
       </c>
       <c r="D55" s="5">
-        <v>349</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0.5043103448275863</v>
+        <v>199</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.10555555555555562</v>
       </c>
       <c r="F55" s="3">
-        <v>5.81916905444126</v>
+        <v>6.064673366834171</v>
       </c>
       <c r="G55" s="4">
-        <v>-4.0375860517914086E-2</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0.30928707425428392</v>
+        <v>7.4555769298307428E-2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.40455082742316795</v>
       </c>
       <c r="I55" s="6">
-        <v>0.19680726750225053</v>
+        <v>-8.7470199106582935E-3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2212,28 +2212,28 @@
         <v>62</v>
       </c>
       <c r="B56" s="3">
-        <v>1406.85</v>
+        <v>1015.9000000000001</v>
       </c>
       <c r="C56" s="6">
-        <v>0.74382716049382736</v>
+        <v>-0.27921216378252189</v>
       </c>
       <c r="D56" s="5">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="E56" s="6">
-        <v>0.744360902255639</v>
+        <v>-0.1964285714285714</v>
       </c>
       <c r="F56" s="3">
-        <v>6.0640086206896546</v>
-      </c>
-      <c r="G56" s="4">
-        <v>-3.0598126862491082E-4</v>
+        <v>5.6438888888888892</v>
+      </c>
+      <c r="G56" s="6">
+        <v>-0.1030195815960273</v>
       </c>
       <c r="H56" s="6">
-        <v>0.40852205005959474</v>
+        <v>-0.21684795186299469</v>
       </c>
       <c r="I56" s="4">
-        <v>-0.10151443982698261</v>
+        <v>4.8578990646521714E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2241,28 +2241,28 @@
         <v>63</v>
       </c>
       <c r="B57" s="3">
-        <v>806.75999999999988</v>
-      </c>
-      <c r="C57" s="4">
-        <v>-0.57722520634088825</v>
+        <v>1409.4299999999998</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-0.31473954433629248</v>
       </c>
       <c r="D57" s="5">
-        <v>133</v>
-      </c>
-      <c r="E57" s="4">
-        <v>-0.5625</v>
+        <v>224</v>
+      </c>
+      <c r="E57" s="6">
+        <v>-0.34693877551020413</v>
       </c>
       <c r="F57" s="3">
-        <v>6.0658646616541345</v>
+        <v>6.2920982142857138</v>
       </c>
       <c r="G57" s="4">
-        <v>-3.3657614493458943E-2</v>
-      </c>
-      <c r="H57" s="4">
-        <v>-0.30431177446102819</v>
+        <v>4.9305072735052136E-2</v>
+      </c>
+      <c r="H57" s="6">
+        <v>-0.31920592405861037</v>
       </c>
       <c r="I57" s="6">
-        <v>1.769725864123961E-2</v>
+        <v>-6.350654124181454E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2270,28 +2270,28 @@
         <v>64</v>
       </c>
       <c r="B58" s="3">
-        <v>1908.2499999999998</v>
-      </c>
-      <c r="C58" s="4">
-        <v>-9.7361500037841817E-2</v>
+        <v>2056.7799999999993</v>
+      </c>
+      <c r="C58" s="6">
+        <v>-2.3839469200431562E-2</v>
       </c>
       <c r="D58" s="5">
-        <v>304</v>
-      </c>
-      <c r="E58" s="4">
-        <v>-0.12138728323699421</v>
+        <v>343</v>
+      </c>
+      <c r="E58" s="6">
+        <v>-3.6516853932584303E-2</v>
       </c>
       <c r="F58" s="3">
-        <v>6.2771381578947363</v>
-      </c>
-      <c r="G58" s="6">
-        <v>2.7345134825351058E-2</v>
-      </c>
-      <c r="H58" s="4">
-        <v>-0.39812850904553959</v>
-      </c>
-      <c r="I58" s="6">
-        <v>5.9620054489457397E-2</v>
+        <v>5.9964431486880443</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1.3157868701592745E-2</v>
+      </c>
+      <c r="H58" s="6">
+        <v>-3.6727879799666074E-2</v>
+      </c>
+      <c r="I58" s="4">
+        <v>4.7369747337348E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2299,28 +2299,28 @@
         <v>65</v>
       </c>
       <c r="B59" s="3">
-        <v>2114.0799999999995</v>
+        <v>2107.0100000000007</v>
       </c>
       <c r="C59" s="4">
-        <v>-2.0765108318549608E-2</v>
+        <v>6.1829745202387043E-2</v>
       </c>
       <c r="D59" s="5">
-        <v>346</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1.4662756598240456E-2</v>
+        <v>356</v>
+      </c>
+      <c r="E59" s="4">
+        <v>9.5384615384615401E-2</v>
       </c>
       <c r="F59" s="3">
-        <v>6.1100578034682069</v>
-      </c>
-      <c r="G59" s="4">
-        <v>-3.4915901550940487E-2</v>
+        <v>5.9185674157303394</v>
+      </c>
+      <c r="G59" s="6">
+        <v>-3.0632957329281396E-2</v>
       </c>
       <c r="H59" s="6">
-        <v>1.9720101781170563E-2</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0.11425859122840333</v>
+        <v>-3.0173682661171597E-2</v>
+      </c>
+      <c r="I59" s="4">
+        <v>7.5804641096639536E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2328,28 +2328,28 @@
         <v>66</v>
       </c>
       <c r="B60" s="3">
-        <v>2158.91</v>
+        <v>1984.32</v>
       </c>
       <c r="C60" s="6">
-        <v>0.2627715452195174</v>
+        <v>-2.293083327999057E-2</v>
       </c>
       <c r="D60" s="5">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E60" s="6">
-        <v>0.30651340996168575</v>
+        <v>-6.8767908309455561E-2</v>
       </c>
       <c r="F60" s="3">
-        <v>6.3311143695014662</v>
+        <v>6.1055999999999999</v>
       </c>
       <c r="G60" s="4">
-        <v>-3.347984368828727E-2</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0.45582515280607522</v>
-      </c>
-      <c r="I60" s="4">
-        <v>-0.14138040712468192</v>
+        <v>4.9221966723948629E-2</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9.7754079819033723E-2</v>
+      </c>
+      <c r="I60" s="6">
+        <v>-0.1617176040196352</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2357,28 +2357,28 @@
         <v>67</v>
       </c>
       <c r="B61" s="3">
-        <v>1709.6599999999996</v>
+        <v>2030.8899999999994</v>
       </c>
       <c r="C61" s="4">
-        <v>-0.18851159567499898</v>
+        <v>0.44357252016917248</v>
       </c>
       <c r="D61" s="5">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="E61" s="4">
-        <v>-0.22089552238805965</v>
+        <v>0.5043103448275863</v>
       </c>
       <c r="F61" s="3">
-        <v>6.5504214559386957</v>
+        <v>5.8191690544412591</v>
       </c>
       <c r="G61" s="6">
-        <v>4.1565576432472717E-2</v>
-      </c>
-      <c r="H61" s="6">
-        <v>6.8051434223540985E-2</v>
+        <v>-4.0375860517914086E-2</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.30928707425428392</v>
       </c>
       <c r="I61" s="4">
-        <v>-6.7095591308191205E-2</v>
+        <v>0.19680726750225053</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2386,28 +2386,28 @@
         <v>68</v>
       </c>
       <c r="B62" s="3">
-        <v>2106.8200000000006</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0.93912451218614246</v>
+        <v>1406.8499999999995</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.74382716049382613</v>
       </c>
       <c r="D62" s="5">
-        <v>335</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0.94767441860465107</v>
+        <v>232</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.744360902255639</v>
       </c>
       <c r="F62" s="3">
-        <v>6.2890149253731362</v>
-      </c>
-      <c r="G62" s="4">
-        <v>-4.3898026984582339E-3</v>
-      </c>
-      <c r="H62" s="6">
-        <v>8.6395873629916201E-2</v>
+        <v>6.0640086206896529</v>
+      </c>
+      <c r="G62" s="6">
+        <v>-3.0598126862568797E-4</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.40852205005959474</v>
       </c>
       <c r="I62" s="6">
-        <v>0.28773491592482681</v>
+        <v>-0.10151443982698261</v>
       </c>
     </row>
   </sheetData>
